--- a/Deliverable4/User Stories and Acceptance Criteria Sprint 4.xlsx
+++ b/Deliverable4/User Stories and Acceptance Criteria Sprint 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://paceuniversity-my.sharepoint.com/personal/ss74277n_pace_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{476000AA-C633-5A4D-97DB-7C7E0C1F733C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46CC199D-DCAB-3C4F-90E6-69E8B3BC3E58}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{476000AA-C633-5A4D-97DB-7C7E0C1F733C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86DDA2E8-D8CB-5643-BBDD-2032D3A76354}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{043CE185-0C48-4646-9344-298639325EAD}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>User Story ID</t>
-  </si>
-  <si>
-    <t>User stories	Acceptance Criteria</t>
   </si>
   <si>
     <t>Acceptance Criteria</t>
@@ -112,16 +109,51 @@
   </si>
   <si>
     <t>The copy to clipboard pop up should be automatically be available for the user for convivence if the user wants to copy the summary</t>
+  </si>
+  <si>
+    <t>FNDJL-22</t>
+  </si>
+  <si>
+    <t>FNDJL-23</t>
+  </si>
+  <si>
+    <t>User should be able to upload text blog to a portal and other users should be able to read it.</t>
+  </si>
+  <si>
+    <t>As a business owner 
+I should able to upload post related to news
+So that I can make sure that news is correct through users feedback</t>
+  </si>
+  <si>
+    <t>User must be able to write a text comment on blogs posted by other users and it should be visible to other users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a Business Owner 
+I want to comment on blog post created by other users
+So that I can validate the news posted on blog
+</t>
+  </si>
+  <si>
+    <t>User stories</t>
+  </si>
+  <si>
+    <t>Estimation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,15 +208,17 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983C1F47-291D-A74D-B6D2-2B240BBE73F7}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,84 +547,134 @@
     <col min="3" max="3" width="83.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="119" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
